--- a/biology/Zoologie/Dryade_(oiseau)/Dryade_(oiseau).xlsx
+++ b/biology/Zoologie/Dryade_(oiseau)/Dryade_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalurania
 Thalurania (n. f.) est un genre d'oiseaux-mouches qui portent le nom normalisé de dryades.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme dryade provient du nom des nymphes des bois dans la mythologie grecque appelées dryades.
 </t>
@@ -543,11 +557,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Thalurania fannyi a été considérée un temps comme une espèce à part entière par les ornitholoques, mais il est maintenant prouvé qu'elle est conspécifique de Thalurania colombica, et n'est probablement qu'une variation clinale[1]. Elle perd son statut d'espèce dans la version 3.4 (2013) de la classification de référence du Congrès ornithologique international.
-Liste d'espèces
-D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thalurania fannyi a été considérée un temps comme une espèce à part entière par les ornitholoques, mais il est maintenant prouvé qu'elle est conspécifique de Thalurania colombica, et n'est probablement qu'une variation clinale. Elle perd son statut d'espèce dans la version 3.4 (2013) de la classification de référence du Congrès ornithologique international.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dryade_(oiseau)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryade_(oiseau)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international (ordre phylogénique) :
 Thalurania colombica – Dryade couronnée
 Thalurania furcata – Dryade à queue fourchue
 Thalurania watertonii – Dryade de Waterton
